--- a/Marketing/cowboys.roomme.xlsx
+++ b/Marketing/cowboys.roomme.xlsx
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">

--- a/Marketing/cowboys.roomme.xlsx
+++ b/Marketing/cowboys.roomme.xlsx
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">

--- a/Marketing/cowboys.roomme.xlsx
+++ b/Marketing/cowboys.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>toddvaccarello</t>
+          <t>ellerygraff</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>reagan.42</t>
+          <t>maddi.gottschalk_1</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>addison_dawes</t>
+          <t>dsal23_</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_brettlankie</t>
+          <t>yardboy75</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ty_my_ly</t>
+          <t>mcqeen02</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kenziemurphy0</t>
+          <t>ricardo.mulino</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jrhankins06</t>
+          <t>lholden1264</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>joshua_soww</t>
+          <t>caralineawilliams</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>autumn.mayfield_</t>
+          <t>braydenneher</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mkduckworth</t>
+          <t>kate.fernsby</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaycemadison_</t>
+          <t>maxbenge0</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>andres.martineze</t>
+          <t>tanner.trouthb</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trey.p60</t>
+          <t>lydia.hock</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mark_friday8</t>
+          <t>shurabej</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>maddi_warner</t>
+          <t>sporty_kayla</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>blakeleerigsby</t>
+          <t>kpkinser</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>valentinaarita_</t>
+          <t>justpeachy2725</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>crazycatlady1515</t>
+          <t>g00pygoblin</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>laci.estes</t>
+          <t>avagclarkk</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>amandacasica</t>
+          <t>stephanieking9613</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>libbie_diane</t>
+          <t>kkatethomas_</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jan_mcdonald82</t>
+          <t>ay_lazcano</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>natalyabyrd</t>
+          <t>champagnenathan2</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gabbybodenshot</t>
+          <t>melall74</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>kambryant3</t>
+          <t>_lolascrafts</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>xmdimran</t>
+          <t>elliturnerr</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a.don.is.chang</t>
+          <t>karen_kelley_harris</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mads_mowery</t>
+          <t>jennaallen_210</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mbokesch</t>
+          <t>lanie.may</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kaylee_carson06</t>
+          <t>apexonperkins</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cora_cagle</t>
+          <t>kamh06</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>emm_cave</t>
+          <t>kymberlee.jord</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aunna._.emily</t>
+          <t>chrispusclax</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>madiipeters</t>
+          <t>c_marie_37</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mack_nchez1234</t>
+          <t>fmswife</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>rhyan.johnston</t>
+          <t>brynnekscott</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ato0z</t>
+          <t>sliva_marly_art</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>chelsea.nicole35</t>
+          <t>wisecarla</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>twthree05</t>
+          <t>duffy_mattox</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>rachelsteeleee</t>
+          <t>mdharrod71</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lawson.a.garcia</t>
+          <t>stacey_mallow_096</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>maddiesigman_</t>
+          <t>isaacjacks0nn</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>caroline.krebs_</t>
+          <t>_kate_mcclure_</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kelz_620</t>
+          <t>addie.mae.thomas</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>g2_evan</t>
+          <t>grace_e_norton</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>user7937392720173</t>
+          <t>realwillbogie</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jack_gimm</t>
+          <t>pearl_lieberman1</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>viarylee</t>
+          <t>pistoy6</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>audreyfremder</t>
+          <t>andrew.gungoll</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>andrew_beyer19</t>
+          <t>p_akers421</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>brehartyyy</t>
+          <t>sxucyhighlights</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>miakvaughan</t>
+          <t>hannah_laura09</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>soph_tijerina</t>
+          <t>randi_collins_estes</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>maxbenge0</t>
+          <t>rosie_polk1</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>logan06b</t>
+          <t>jackradziwicz</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>taylor_pennington02</t>
+          <t>fly_guy_rc</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lavendercoin</t>
+          <t>jrschnuelle3</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ryan._.diaz_</t>
+          <t>pistoy4</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>kyler_ortega_</t>
+          <t>_kenziecline</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sophee_nichols_</t>
+          <t>sophiefrazier_</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>charittyyy</t>
+          <t>vvivicapowell</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>hopelane.rhoads</t>
+          <t>kenna_vaughan05</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lauren.e.karr</t>
+          <t>elanor.mehen</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tinslee_allan05</t>
+          <t>therealgsu</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sadie_lou0430</t>
+          <t>ben.pfeil.17</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>jonahliss</t>
+          <t>avalonhalferty</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>caseelogan</t>
+          <t>caralineross05</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>reblammers7</t>
+          <t>karianne.sanders</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tawnyroberds</t>
+          <t>biggmoneyyyyyyyy</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>maddy.c.king</t>
+          <t>brooklynjenkins23</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bobcatbball</t>
+          <t>jessicajacob__</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>kbrown.denton</t>
+          <t>srt.slime422</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ricardo.mulino</t>
+          <t>mbokesch</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>pinky_1105</t>
+          <t>lyle170023</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>dikissane</t>
+          <t>car.sonsmith22</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bridget.colatruglio</t>
+          <t>haley_mustari</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>peyton_arnold20</t>
+          <t>emm_c_spam</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>tamiushkamarie</t>
+          <t>kellyjakirea</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>pablo_vazquez345</t>
+          <t>annakate__lewis</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>jadenkinnison</t>
+          <t>macyy.mueller</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,757 +1248,757 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paul_david_slavin</t>
+          <t>pr3ttyfac_jordy</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>abigal.shofler</t>
+          <t>gabbie.wrightt</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>despierce</t>
+          <t>reynolds.lindsey101</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>potter_njp</t>
+          <t>gavery336_</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bherrysmush</t>
+          <t>ryli.murray</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>joeltramp23</t>
+          <t>nastashawells</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>calamitys04</t>
+          <t>mrdiegoac</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>francescamarie629</t>
+          <t>aubdoobie</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>segerrune</t>
+          <t>trystin_05</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>smyers678</t>
+          <t>kyndall_litchfield</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>kadlvr</t>
+          <t>viarylee</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>_shelby.radford_</t>
+          <t>griffinspaniel</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>audreykhughes</t>
+          <t>jordanpr94</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jonis2009</t>
+          <t>smcathey</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>laciraesewell</t>
+          <t>jrhankins06</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>shellssgram</t>
+          <t>sami_schweighardt</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>its_quentinw</t>
+          <t>molly_.dillingham</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>elliturnerr</t>
+          <t>mckenzi_kenzii</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>porterjoy</t>
+          <t>lilycoffman24</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>theaveryatch</t>
+          <t>augustuslxnn</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>bella.ridener</t>
+          <t>mjd68</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>juliag_dancer</t>
+          <t>serenity.schnider</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>fieldlauryn</t>
+          <t>mmukhopadhyay470</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>luke.haygood</t>
+          <t>pmhinds0313</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>molliekatewebb</t>
+          <t>jadedavvis</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>haleyrbland</t>
+          <t>ginapagecomermaxwell</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>halle.malpass</t>
+          <t>kendal.blev</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>zoe_h_thompson</t>
+          <t>lisa_hanley72</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ikamtastic_</t>
+          <t>andres.martineze</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>hannah_marino3</t>
+          <t>taryn_moorman</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>josh.kreeger</t>
+          <t>paytynferrell</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>kimchadkaercher</t>
+          <t>blakemischley</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>teddie_hooker</t>
+          <t>thatcrazylightskin.lyn</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>mcmahan.sydney</t>
+          <t>kennedygrifff</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>hannah__tomes</t>
+          <t>peytonsking</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cara_lanclos_</t>
+          <t>ajclinton4</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jacksonaritchie</t>
+          <t>_graysonbaker</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>carson_ruoff_</t>
+          <t>amy_patton2003</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>maya_yasmine04</t>
+          <t>user_8182641</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>chloedavis143</t>
+          <t>_karleewebb</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>kaysharon664</t>
+          <t>foodie_steph_123x</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>txahern</t>
+          <t>diana.elodie_26</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>sara.hershyyb</t>
+          <t>mommacasey1</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>emma_vickers_8</t>
+          <t>debbie_isaac_jones</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>its_the_melody_</t>
+          <t>unusual_brushes</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>alex_evans_05</t>
+          <t>potter_njp</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>jaxluke10</t>
+          <t>lauren_earp24</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>sam_mooney6014</t>
+          <t>reblammers7</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>erins_bf_lol</t>
+          <t>drakeclark__13</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>marrisjoe69</t>
+          <t>okstatepokes27</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>maxhamilton05</t>
+          <t>whatitissmith</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>canyon_curtis</t>
+          <t>shayleaseever</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>itsmeganelam</t>
+          <t>addisonlhodges</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>addy.smith_12</t>
+          <t>kateclarkjj</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>payton.frisby</t>
+          <t>ericcaleon</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>gajealgo_yt</t>
+          <t>abdoulayediallo614</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>stylingene</t>
+          <t>the_huntermartin</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jaelen.porter</t>
+          <t>pinky_1105</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>bridgetcconnelly</t>
+          <t>mrsnataliebruno</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>thompson.adelia</t>
+          <t>floetic.libra</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>baelynn2023</t>
+          <t>2_elc_7</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mjd68</t>
+          <t>laurenbengis_</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>lauren.lewiss</t>
+          <t>hannah.grady76</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>pparkerhayes</t>
+          <t>mikala_1258</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>neileeguinn</t>
+          <t>itsmeganelam</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>layken_f</t>
+          <t>boston_grigg_69</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cameron__shelton</t>
+          <t>isabellekoch1215</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>briennefarrar</t>
+          <t>brettchampagne2</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>laurenkarnig</t>
+          <t>shawn.sumerlin</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>melbak2023</t>
+          <t>cheryl.silva</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>caralineross05</t>
+          <t>birdsstarsandsky</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>jjmc98</t>
+          <t>lauren.lewiss</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>_madison.land_</t>
+          <t>trystan.nicolee</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>brockball_sack</t>
+          <t>nhischu</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>darby10_</t>
+          <t>_saraflynn</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>neelydunaway</t>
+          <t>moore_than_tired</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>maverickl14</t>
+          <t>copleyml</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>thebriansiebert</t>
+          <t>mack_nchez1234</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>aria_nadda</t>
+          <t>chelseaceeam</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>nhischu</t>
+          <t>emilyfweiss</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>grant.griffin</t>
+          <t>tracymowery</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>hayliexsmithh</t>
+          <t>nevaeh.loveras</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ginapagecomermaxwell</t>
+          <t>mkduckworth</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>caknedler</t>
+          <t>ngonz1224</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>_tori_mcgee_</t>
+          <t>smyers678</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>_karleewebb</t>
+          <t>nate.jines8</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>thatcrazylightskin.lyn</t>
+          <t>catherinekamp3</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>stinson_burns</t>
+          <t>carol.bluethman</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>nate.jines8</t>
+          <t>papermarkup</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>maddiem.taylor</t>
+          <t>caknedler</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>parkerfarace</t>
+          <t>kristina_w75</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jillly_bean05</t>
+          <t>jadamscouch</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>moore_than_tired</t>
+          <t>kyleighblanton</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ellaashortino</t>
+          <t>baelynn2023</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>audreyycaban</t>
+          <t>emma_r_nelson</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>madison.travis24</t>
+          <t>texasnitagirl</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>lukeedelman24</t>
+          <t>tawnyroberds</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>rylee_russell__</t>
+          <t>sydymac</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>kenzie_violet06</t>
+          <t>delani_davenport</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>8_eduard_4</t>
+          <t>regan_masterson</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>graces.galleryy</t>
+          <t>sadler_satterwhite</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lelandhines_</t>
+          <t>cmollie</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>tuckers_in_texas</t>
+          <t>mhazlewood</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>vivian.e.t</t>
+          <t>glass_drew</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>cmollie</t>
+          <t>bayleighmaloy</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>marleigh.cook</t>
+          <t>_riley_starr</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>emma_r_nelson</t>
+          <t>tirzahguevaraa</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>kristinavenablee</t>
+          <t>babz862</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>dylan_flechs</t>
+          <t>mcklammers24</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>allysondonielle</t>
+          <t>meagan_grace.05</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>claytonjroach</t>
+          <t>g2thompson</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>charlize.mathis</t>
+          <t>joshmckenna370</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ericcaleon</t>
+          <t>grant.griffin</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>th0maspk</t>
+          <t>ella_s6a</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>margaret_camak</t>
+          <t>stylingene</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>fmswife</t>
+          <t>currie.sydney</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sydney.parisotto</t>
+          <t>brookeccrawford</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>alyssamcclard</t>
+          <t>its_toree_duh</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ngreen2004</t>
+          <t>tiaunna.travis</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>bryar_phil06</t>
+          <t>averykissane</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>lydiamstrickland</t>
+          <t>chance__justice</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>avery_escajeda</t>
+          <t>simps00</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>jonah.hilton6</t>
+          <t>e.rinthomps</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>davidkristi_bacon</t>
+          <t>trellamoss</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sarahkezarrr</t>
+          <t>despierce</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>fly_guy_rc</t>
+          <t>ni_cola9308</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>sonyalarson22</t>
+          <t>donald.icko</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,1090 +2518,10 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>_ellabauman_</t>
+          <t>jonis2009</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>abby.pattison</t>
-        </is>
-      </c>
-      <c r="B210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>shelby.s18</t>
-        </is>
-      </c>
-      <c r="B211" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>thetannerlawson</t>
-        </is>
-      </c>
-      <c r="B212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>griffinspaniel</t>
-        </is>
-      </c>
-      <c r="B213" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>tanner.trouthb</t>
-        </is>
-      </c>
-      <c r="B214" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>pmhinds0313</t>
-        </is>
-      </c>
-      <c r="B215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>andr01d05</t>
-        </is>
-      </c>
-      <c r="B216" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>emmaashcraft_</t>
-        </is>
-      </c>
-      <c r="B217" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>reynolds.lindsey101</t>
-        </is>
-      </c>
-      <c r="B218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>brycesmith112</t>
-        </is>
-      </c>
-      <c r="B219" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>shawn.sumerlin</t>
-        </is>
-      </c>
-      <c r="B220" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>e.rinthomps</t>
-        </is>
-      </c>
-      <c r="B221" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>izzy.izzerto</t>
-        </is>
-      </c>
-      <c r="B222" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>andrew.gungoll</t>
-        </is>
-      </c>
-      <c r="B223" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>i.lovejonathan</t>
-        </is>
-      </c>
-      <c r="B224" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>kenna_vaughan05</t>
-        </is>
-      </c>
-      <c r="B225" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>carol.bluethman</t>
-        </is>
-      </c>
-      <c r="B226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>anmnascar</t>
-        </is>
-      </c>
-      <c r="B227" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>bella.donofrio</t>
-        </is>
-      </c>
-      <c r="B228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>maecie_lynn20</t>
-        </is>
-      </c>
-      <c r="B229" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>nastashawells</t>
-        </is>
-      </c>
-      <c r="B230" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>sophiefrazier_</t>
-        </is>
-      </c>
-      <c r="B231" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>sofiadallarosaaa</t>
-        </is>
-      </c>
-      <c r="B232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>jack.munger35</t>
-        </is>
-      </c>
-      <c r="B233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>mdharrod71</t>
-        </is>
-      </c>
-      <c r="B234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>addie.mae.thomas</t>
-        </is>
-      </c>
-      <c r="B235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>tirzahguevaraa</t>
-        </is>
-      </c>
-      <c r="B236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>currie.sydney</t>
-        </is>
-      </c>
-      <c r="B237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>karianne.sanders</t>
-        </is>
-      </c>
-      <c r="B238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>blakemischley</t>
-        </is>
-      </c>
-      <c r="B239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>rosson.ellen</t>
-        </is>
-      </c>
-      <c r="B240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>brysont.jpg</t>
-        </is>
-      </c>
-      <c r="B241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>brooklynraet</t>
-        </is>
-      </c>
-      <c r="B242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>joshmckenna370</t>
-        </is>
-      </c>
-      <c r="B243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>laurenbengis_</t>
-        </is>
-      </c>
-      <c r="B244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>jadedavvis</t>
-        </is>
-      </c>
-      <c r="B245" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>brooklynreigh_1295</t>
-        </is>
-      </c>
-      <c r="B246" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>mmukhopadhyay470</t>
-        </is>
-      </c>
-      <c r="B247" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>triciastevenson0508</t>
-        </is>
-      </c>
-      <c r="B248" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>lafichera24</t>
-        </is>
-      </c>
-      <c r="B249" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>sierra.widener</t>
-        </is>
-      </c>
-      <c r="B250" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>bayleighmaloy</t>
-        </is>
-      </c>
-      <c r="B251" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>3lijah0550</t>
-        </is>
-      </c>
-      <c r="B252" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>_lolascrafts</t>
-        </is>
-      </c>
-      <c r="B253" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>ajclinton4</t>
-        </is>
-      </c>
-      <c r="B254" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>jennaallen_210</t>
-        </is>
-      </c>
-      <c r="B255" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>brynnekscott</t>
-        </is>
-      </c>
-      <c r="B256" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>justpeachy2725</t>
-        </is>
-      </c>
-      <c r="B257" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>kkatethomas_</t>
-        </is>
-      </c>
-      <c r="B258" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>averykissane</t>
-        </is>
-      </c>
-      <c r="B259" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>p_akers421</t>
-        </is>
-      </c>
-      <c r="B260" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>abbieneble</t>
-        </is>
-      </c>
-      <c r="B261" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>shyliebriee</t>
-        </is>
-      </c>
-      <c r="B262" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>zachary_crum</t>
-        </is>
-      </c>
-      <c r="B263" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>cheryl.silva</t>
-        </is>
-      </c>
-      <c r="B264" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>grace_e_norton</t>
-        </is>
-      </c>
-      <c r="B265" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>kyndall_litchfield</t>
-        </is>
-      </c>
-      <c r="B266" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>abby.dequasie</t>
-        </is>
-      </c>
-      <c r="B267" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>jrschnuelle3</t>
-        </is>
-      </c>
-      <c r="B268" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>trellamoss</t>
-        </is>
-      </c>
-      <c r="B269" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>kademc5</t>
-        </is>
-      </c>
-      <c r="B270" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>abbiee_nicolee07</t>
-        </is>
-      </c>
-      <c r="B271" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>christian.tiera</t>
-        </is>
-      </c>
-      <c r="B272" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>chance__justice</t>
-        </is>
-      </c>
-      <c r="B273" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>samantha__revels</t>
-        </is>
-      </c>
-      <c r="B274" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>mhazlewood</t>
-        </is>
-      </c>
-      <c r="B275" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>ella_s6a</t>
-        </is>
-      </c>
-      <c r="B276" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>dylanward.3</t>
-        </is>
-      </c>
-      <c r="B277" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>peytonsking</t>
-        </is>
-      </c>
-      <c r="B278" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>addisonlhodges</t>
-        </is>
-      </c>
-      <c r="B279" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>avalonhalferty</t>
-        </is>
-      </c>
-      <c r="B280" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>jenna.marie122</t>
-        </is>
-      </c>
-      <c r="B281" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>reese.preslee</t>
-        </is>
-      </c>
-      <c r="B282" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>lauryn_pilgrim</t>
-        </is>
-      </c>
-      <c r="B283" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>macyy.mueller</t>
-        </is>
-      </c>
-      <c r="B284" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>realwillbogie</t>
-        </is>
-      </c>
-      <c r="B285" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>kate.fernsby</t>
-        </is>
-      </c>
-      <c r="B286" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>lanie.may</t>
-        </is>
-      </c>
-      <c r="B287" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>paytynferrell</t>
-        </is>
-      </c>
-      <c r="B288" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>floetic.libra</t>
-        </is>
-      </c>
-      <c r="B289" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>brittleeraegann</t>
-        </is>
-      </c>
-      <c r="B290" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>averyelizabethwest</t>
-        </is>
-      </c>
-      <c r="B291" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>glass_drew</t>
-        </is>
-      </c>
-      <c r="B292" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>aftyn.kawcak</t>
-        </is>
-      </c>
-      <c r="B293" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>gabrielleschwane</t>
-        </is>
-      </c>
-      <c r="B294" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>jordynnnscott</t>
-        </is>
-      </c>
-      <c r="B295" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>jules_falcon</t>
-        </is>
-      </c>
-      <c r="B296" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>kayciluper</t>
-        </is>
-      </c>
-      <c r="B297" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>ben.pfeil.17</t>
-        </is>
-      </c>
-      <c r="B298" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>debbie_isaac_jones</t>
-        </is>
-      </c>
-      <c r="B299" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>kpkinser</t>
-        </is>
-      </c>
-      <c r="B300" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>connor_w_phillips</t>
-        </is>
-      </c>
-      <c r="B301" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>caralineawilliams</t>
-        </is>
-      </c>
-      <c r="B302" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>mrsnataliebruno</t>
-        </is>
-      </c>
-      <c r="B303" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>g00pygoblin</t>
-        </is>
-      </c>
-      <c r="B304" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>gabbie.wrightt</t>
-        </is>
-      </c>
-      <c r="B305" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>_graysonbaker</t>
-        </is>
-      </c>
-      <c r="B306" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>regan_lea</t>
-        </is>
-      </c>
-      <c r="B307" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>taryn_moorman</t>
-        </is>
-      </c>
-      <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>annabelle10_21</t>
-        </is>
-      </c>
-      <c r="B309" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>regan_masterson</t>
-        </is>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>dsal23_</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>avagclarkk</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>shurabej</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>katerbug_00</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>kyleighblanton</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>lydia.hock</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>lilycoffman24</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/cowboys.roomme.xlsx
+++ b/Marketing/cowboys.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ellerygraff</t>
+          <t>kate.bonesteel</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>maddi.gottschalk_1</t>
+          <t>mjd68</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dsal23_</t>
+          <t>sliva_marly_art</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>yardboy75</t>
+          <t>ellaashortino</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mcqeen02</t>
+          <t>jack_gimm</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ricardo.mulino</t>
+          <t>okstatepokes27</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lholden1264</t>
+          <t>cassidy.rink</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>caralineawilliams</t>
+          <t>jadenkinnison</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>braydenneher</t>
+          <t>shyliebriee</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>kate.fernsby</t>
+          <t>molliekatewebb</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>maxbenge0</t>
+          <t>cw1405_82</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tanner.trouthb</t>
+          <t>macym11</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lydia.hock</t>
+          <t>kelz_620</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>shurabej</t>
+          <t>blakeleerigsby</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sporty_kayla</t>
+          <t>reesecourtney_22</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kpkinser</t>
+          <t>tannermflawson</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>justpeachy2725</t>
+          <t>matt_alpha_henderson</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>g00pygoblin</t>
+          <t>twthree05</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>avagclarkk</t>
+          <t>shawn.sumerlin</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>stephanieking9613</t>
+          <t>trystin_05</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kkatethomas_</t>
+          <t>jules_quinoness</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ay_lazcano</t>
+          <t>ericcaleon</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>champagnenathan2</t>
+          <t>layken_f</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>melall74</t>
+          <t>maddi_warner</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>_lolascrafts</t>
+          <t>potter_njp</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>elliturnerr</t>
+          <t>laurenkarnig</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>karen_kelley_harris</t>
+          <t>kristinavenablee</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jennaallen_210</t>
+          <t>leahdezek</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lanie.may</t>
+          <t>taylee.chasko</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>apexonperkins</t>
+          <t>rhyan.johnston</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>kamh06</t>
+          <t>wisecarla</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kymberlee.jord</t>
+          <t>jadamscouch</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>chrispusclax</t>
+          <t>angeliaasha</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>c_marie_37</t>
+          <t>sxucyhighlights</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fmswife</t>
+          <t>_alyssa.mcniel_</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>brynnekscott</t>
+          <t>lauren.e.karr</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>fmswife</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wisecarla</t>
+          <t>isabellecawthra</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>duffy_mattox</t>
+          <t>bayleighmaloy</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mdharrod71</t>
+          <t>kate.rodgerss</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>stacey_mallow_096</t>
+          <t>bridget.colatruglio</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>isaacjacks0nn</t>
+          <t>reynolds.lindsey101</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>_kate_mcclure_</t>
+          <t>brooklynraet</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>addie.mae.thomas</t>
+          <t>ajclinton4</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>grace_e_norton</t>
+          <t>laci.estes</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>realwillbogie</t>
+          <t>lauren.lewiss</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>pearl_lieberman1</t>
+          <t>gheimbecker</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>pistoy6</t>
+          <t>sydymac</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>andrew.gungoll</t>
+          <t>jacksonaritchie</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>p_akers421</t>
+          <t>jillly_bean05</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sxucyhighlights</t>
+          <t>annakate__lewis</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>hannah_laura09</t>
+          <t>xmdimran</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>randi_collins_estes</t>
+          <t>hopelane.rhoads</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>rosie_polk1</t>
+          <t>smyers678</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>jackradziwicz</t>
+          <t>dikissane</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>fly_guy_rc</t>
+          <t>gajealgo_yt</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>jrschnuelle3</t>
+          <t>andr01d05</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>pistoy4</t>
+          <t>mcmahan.sydney</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_kenziecline</t>
+          <t>boston_grigg_69</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sophiefrazier_</t>
+          <t>stacey_mallow_096</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vvivicapowell</t>
+          <t>whatitissmith</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kenna_vaughan05</t>
+          <t>kendal.blev</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>elanor.mehen</t>
+          <t>aftyn.kawcak</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>therealgsu</t>
+          <t>birdsstarsandsky</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ben.pfeil.17</t>
+          <t>chelsea.nicole35</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>avalonhalferty</t>
+          <t>kenandyr___</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>caralineross05</t>
+          <t>graces.galleryy</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>karianne.sanders</t>
+          <t>vivian.e.t</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>biggmoneyyyyyyyy</t>
+          <t>darby10_</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>brooklynjenkins23</t>
+          <t>kaysharon664</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jessicajacob__</t>
+          <t>its_toree_duh</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>srt.slime422</t>
+          <t>j.g_allenbach</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mbokesch</t>
+          <t>betsybalthrop</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lyle170023</t>
+          <t>piper_goodson</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>car.sonsmith22</t>
+          <t>jud_kirby</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>haley_mustari</t>
+          <t>twopacksboys</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>emm_c_spam</t>
+          <t>cmaddoux_</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kellyjakirea</t>
+          <t>shelby.s18</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>annakate__lewis</t>
+          <t>avalonhalferty</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>macyy.mueller</t>
+          <t>_lolascrafts</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,607 +1248,607 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>pr3ttyfac_jordy</t>
+          <t>jackradziwicz</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>gabbie.wrightt</t>
+          <t>zoe_h_thompson</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>reynolds.lindsey101</t>
+          <t>oluwakayode696_</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>gavery336_</t>
+          <t>caknedler</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ryli.murray</t>
+          <t>karianne.sanders</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>nastashawells</t>
+          <t>abdoulayediallo614</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mrdiegoac</t>
+          <t>kaylee_carson06</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>aubdoobie</t>
+          <t>jaelen.porter</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>trystin_05</t>
+          <t>ben.pfeil.17</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>kyndall_litchfield</t>
+          <t>maya_yasmine04</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>viarylee</t>
+          <t>peytonsking</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>griffinspaniel</t>
+          <t>macyy.mueller</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>jordanpr94</t>
+          <t>meagan_grace.05</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>smcathey</t>
+          <t>bobcatbball</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>jrhankins06</t>
+          <t>paul_david_slavin</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sami_schweighardt</t>
+          <t>chloedavis143</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>molly_.dillingham</t>
+          <t>thebriansiebert</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mckenzi_kenzii</t>
+          <t>ryan._.diaz_</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>lilycoffman24</t>
+          <t>jan_mcdonald82</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>augustuslxnn</t>
+          <t>ella_s6a</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>mjd68</t>
+          <t>trellamoss</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>serenity.schnider</t>
+          <t>jaden12.5</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mmukhopadhyay470</t>
+          <t>caralineawilliams</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>pmhinds0313</t>
+          <t>kambryant3</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>jadedavvis</t>
+          <t>gpark13_</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ginapagecomermaxwell</t>
+          <t>papermarkup</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>kendal.blev</t>
+          <t>gavery336_</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>lisa_hanley72</t>
+          <t>_shelby.radford_</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>andres.martineze</t>
+          <t>trystan.nicolee</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>taryn_moorman</t>
+          <t>madiipeters</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>paytynferrell</t>
+          <t>regan_masterson</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>blakemischley</t>
+          <t>pistoy6</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>thatcrazylightskin.lyn</t>
+          <t>maxbenge0</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>kennedygrifff</t>
+          <t>libbie_diane</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>peytonsking</t>
+          <t>fieldlauryn</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ajclinton4</t>
+          <t>triciastevenson0508</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>_graysonbaker</t>
+          <t>jadedavvis</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>amy_patton2003</t>
+          <t>autumn.mayfield_</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>user_8182641</t>
+          <t>tirzahguevaraa</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>_karleewebb</t>
+          <t>cheryl.silva</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>foodie_steph_123x</t>
+          <t>nevaeh.loveras</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>diana.elodie_26</t>
+          <t>mbokesch</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>mommacasey1</t>
+          <t>alex_evans_05</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>debbie_isaac_jones</t>
+          <t>lilycoffman24</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>unusual_brushes</t>
+          <t>samantha__revels</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>potter_njp</t>
+          <t>taylor_pennington02</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lauren_earp24</t>
+          <t>kyndall_litchfield</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>reblammers7</t>
+          <t>caralineross05</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>drakeclark__13</t>
+          <t>serenity.schnider</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>okstatepokes27</t>
+          <t>8_eduard_4</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>whatitissmith</t>
+          <t>yardboy75</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>shayleaseever</t>
+          <t>katedeatherage_</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>addisonlhodges</t>
+          <t>skyy.saudade</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>kateclarkjj</t>
+          <t>jessicaviana555</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ericcaleon</t>
+          <t>dylan_flechs</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>abdoulayediallo614</t>
+          <t>sophiefrazier_</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>the_huntermartin</t>
+          <t>joshmckenna370</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>pinky_1105</t>
+          <t>babz862</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>mrsnataliebruno</t>
+          <t>crazycatlady1515</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>floetic.libra</t>
+          <t>sophee_nichols_</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2_elc_7</t>
+          <t>maddy.c.king</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>laurenbengis_</t>
+          <t>maddiesigman_</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>hannah.grady76</t>
+          <t>unusual_brushes</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>mikala_1258</t>
+          <t>abiamin_nn</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>itsmeganelam</t>
+          <t>calamitys04</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>boston_grigg_69</t>
+          <t>simps00</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>isabellekoch1215</t>
+          <t>tinslee_allan05</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>brettchampagne2</t>
+          <t>abbieneble</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>shawn.sumerlin</t>
+          <t>trinitywhitee</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>cheryl.silva</t>
+          <t>lydia.hock</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>birdsstarsandsky</t>
+          <t>anmnascar</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lauren.lewiss</t>
+          <t>lauren.brooks.goss</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>trystan.nicolee</t>
+          <t>pparkerhayes</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>nhischu</t>
+          <t>rachelsteeleee</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>_saraflynn</t>
+          <t>nhischu</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>moore_than_tired</t>
+          <t>jonah.hilton6</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>copleyml</t>
+          <t>vvivicapowell</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>mack_nchez1234</t>
+          <t>toddvaccarello</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>chelseaceeam</t>
+          <t>meek__6579</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>emilyfweiss</t>
+          <t>mads_mowery</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>tracymowery</t>
+          <t>taryn_moorman</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>nevaeh.loveras</t>
+          <t>ikamtastic_</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>mkduckworth</t>
+          <t>justpeachy2725</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ngonz1224</t>
+          <t>melall74</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>smyers678</t>
+          <t>brirundle</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>nate.jines8</t>
+          <t>_karleewebb</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>catherinekamp3</t>
+          <t>delani_davenport</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>carol.bluethman</t>
+          <t>mckenzi_kenzii</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>papermarkup</t>
+          <t>reagan_alexander_</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>caknedler</t>
+          <t>dsal23_</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>kristina_w75</t>
+          <t>davidkristi_bacon</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jadamscouch</t>
+          <t>theaveryatch</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>kyleighblanton</t>
+          <t>user7937392720173</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>baelynn2023</t>
+          <t>emilyfweiss</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>emma_r_nelson</t>
+          <t>ellea.smith89</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>texasnitagirl</t>
+          <t>jonis2009</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>tawnyroberds</t>
+          <t>stylingene</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sydymac</t>
+          <t>therealgsu</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>delani_davenport</t>
+          <t>sydney.parisotto</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>regan_masterson</t>
+          <t>keeping_up_with_keziah</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>sadler_satterwhite</t>
+          <t>maverickl14</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cmollie</t>
+          <t>avagclarkk</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mhazlewood</t>
+          <t>halle.malpass</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>glass_drew</t>
+          <t>hattie.bond</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>bayleighmaloy</t>
+          <t>car.sonsmith22</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>_riley_starr</t>
+          <t>kinsleymdalton</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>tirzahguevaraa</t>
+          <t>alexmyers0316_</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>babz862</t>
+          <t>audreyfremder</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>mcklammers24</t>
+          <t>catherinekamp3</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>meagan_grace.05</t>
+          <t>ricardo.mulino</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>g2thompson</t>
+          <t>carol.bluethman</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>joshmckenna370</t>
+          <t>sara.hershyyb</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>grant.griffin</t>
+          <t>caroline.krebs_</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ella_s6a</t>
+          <t>claytonjroach</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>stylingene</t>
+          <t>brigid_leto7</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>currie.sydney</t>
+          <t>kyleighblanton</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>brookeccrawford</t>
+          <t>savanah.crittenden</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>its_toree_duh</t>
+          <t>ni_cola9308</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>tiaunna.travis</t>
+          <t>briennefarrar</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>averykissane</t>
+          <t>kellyjakirea</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>chance__justice</t>
+          <t>brehartyyy</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>simps00</t>
+          <t>realwillbogie</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>e.rinthomps</t>
+          <t>thegusavendano</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>trellamoss</t>
+          <t>brycesmith112</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>despierce</t>
+          <t>justcamrie</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ni_cola9308</t>
+          <t>paytynferrell</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>donald.icko</t>
+          <t>food_with_me20</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,10 +2518,440 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>jonis2009</t>
+          <t>currie.sydney</t>
         </is>
       </c>
       <c r="B209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>nate.jines8</t>
+        </is>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>audrey_caroline__</t>
+        </is>
+      </c>
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>jimmy.tedra</t>
+        </is>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>aavamattinglyy</t>
+        </is>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>3lijah0550</t>
+        </is>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>amandacasica</t>
+        </is>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>the_huntermartin</t>
+        </is>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>kimchadkaercher</t>
+        </is>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>mdharrod71</t>
+        </is>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>neileeguinn</t>
+        </is>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>payssegroen</t>
+        </is>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>chelseaceeam</t>
+        </is>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>syd.toph</t>
+        </is>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>copleyml</t>
+        </is>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>brady3538</t>
+        </is>
+      </c>
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>floetic.libra</t>
+        </is>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>pablo_vazquez345</t>
+        </is>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>tawnyroberds</t>
+        </is>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>lholden1264</t>
+        </is>
+      </c>
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>i.lovejonathan</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>alyssamcclard</t>
+        </is>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>tanner.trouthb</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>alyssa.lew_</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>andres.martineze</t>
+        </is>
+      </c>
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>lukeedelman24</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>audreykhughes</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>lauren_earp24</t>
+        </is>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>haven.pyle</t>
+        </is>
+      </c>
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>jessicajacob__</t>
+        </is>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>segerrune</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>its_the_melody_</t>
+        </is>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>kymberlee.jord</t>
+        </is>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>laursaunders</t>
+        </is>
+      </c>
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>isabellekoch1215</t>
+        </is>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>caseelogan</t>
+        </is>
+      </c>
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ginapagecomermaxwell</t>
+        </is>
+      </c>
+      <c r="B245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>kgar.1</t>
+        </is>
+      </c>
+      <c r="B246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>lafichera24</t>
+        </is>
+      </c>
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>hannah.grady76</t>
+        </is>
+      </c>
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>augustuslxnn</t>
+        </is>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>addison_dawes</t>
+        </is>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>lavendercoin</t>
+        </is>
+      </c>
+      <c r="B251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>tiaunna.travis</t>
+        </is>
+      </c>
+      <c r="B252" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/cowboys.roomme.xlsx
+++ b/Marketing/cowboys.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kate.bonesteel</t>
+          <t>cora_cagle</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mjd68</t>
+          <t>brigid_leto7</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>madison.travis24</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ellaashortino</t>
+          <t>autumn.mayfield_</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jack_gimm</t>
+          <t>gpark13_</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>okstatepokes27</t>
+          <t>kenziemurphy0</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cassidy.rink</t>
+          <t>mcklammers24</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jadenkinnison</t>
+          <t>andr01d05</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>shyliebriee</t>
+          <t>alex_evans_05</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>molliekatewebb</t>
+          <t>briennefarrar</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cw1405_82</t>
+          <t>sonyalarson22</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>macym11</t>
+          <t>lafichera24</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kelz_620</t>
+          <t>hannah_marino3</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>blakeleerigsby</t>
+          <t>audreykhughes</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>reesecourtney_22</t>
+          <t>sophee_nichols_</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tannermflawson</t>
+          <t>brirundle</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>matt_alpha_henderson</t>
+          <t>audreyycaban</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>twthree05</t>
+          <t>averyypate</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>shawn.sumerlin</t>
+          <t>avery_escajeda</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>trystin_05</t>
+          <t>c_marie_37</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jules_quinoness</t>
+          <t>justpeachy2725</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ericcaleon</t>
+          <t>kbrown.denton</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>layken_f</t>
+          <t>jan_mcdonald82</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>maddi_warner</t>
+          <t>abbiee_nicolee07</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>potter_njp</t>
+          <t>sara.hershyyb</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>laurenkarnig</t>
+          <t>ben.pfeil.17</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kristinavenablee</t>
+          <t>leahdezek</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>leahdezek</t>
+          <t>nevaeh.loveras</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>taylee.chasko</t>
+          <t>tyler__chrisman</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>rhyan.johnston</t>
+          <t>stinson_burns</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wisecarla</t>
+          <t>ellerygraff</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jadamscouch</t>
+          <t>chance__justice</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>angeliaasha</t>
+          <t>natalyabyrd</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sxucyhighlights</t>
+          <t>teddie_hooker</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_alyssa.mcniel_</t>
+          <t>caralineross05</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lauren.e.karr</t>
+          <t>madiipeters</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fmswife</t>
+          <t>mjd68</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>isabellecawthra</t>
+          <t>tawnyroberds</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bayleighmaloy</t>
+          <t>kademc5</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>kate.rodgerss</t>
+          <t>abby.dequasie</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bridget.colatruglio</t>
+          <t>christian.tiera</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>reynolds.lindsey101</t>
+          <t>regan_masterson</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>brooklynraet</t>
+          <t>jack_gimm</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ajclinton4</t>
+          <t>2_elc_7</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>laci.estes</t>
+          <t>sofiadallarosaaa</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>lauren.lewiss</t>
+          <t>joeltramp23</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gheimbecker</t>
+          <t>_madison.land_</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sydymac</t>
+          <t>abiamin_nn</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>jacksonaritchie</t>
+          <t>emilyfweiss</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>jillly_bean05</t>
+          <t>zachary_crum</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>annakate__lewis</t>
+          <t>pistoy4</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xmdimran</t>
+          <t>vivian.e.t</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hopelane.rhoads</t>
+          <t>xmdimran</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>smyers678</t>
+          <t>tracesfilmfest</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>dikissane</t>
+          <t>charittyyy</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>gajealgo_yt</t>
+          <t>p_akers421</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>andr01d05</t>
+          <t>tirzahguevaraa</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mcmahan.sydney</t>
+          <t>kgar.1</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>boston_grigg_69</t>
+          <t>molliekatewebb</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>stacey_mallow_096</t>
+          <t>soph_tijerina</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,551 +1048,551 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>whatitissmith</t>
+          <t>carol.bluethman</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kendal.blev</t>
+          <t>tuckers_in_texas</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>aftyn.kawcak</t>
+          <t>bella.donofrio</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>birdsstarsandsky</t>
+          <t>cmollie</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>chelsea.nicole35</t>
+          <t>th0maspk</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kenandyr___</t>
+          <t>jastinyhale</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>graces.galleryy</t>
+          <t>bayles_76_</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>vivian.e.t</t>
+          <t>htner04</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>darby10_</t>
+          <t>jaden12.5</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kaysharon664</t>
+          <t>bobcatbball</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>its_toree_duh</t>
+          <t>cooper__bacon</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>j.g_allenbach</t>
+          <t>apexonperkins</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>betsybalthrop</t>
+          <t>connor_w_phillips</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>piper_goodson</t>
+          <t>sadler_satterwhite</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jud_kirby</t>
+          <t>floetic.libra</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>twopacksboys</t>
+          <t>mckenzi_kenzii</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cmaddoux_</t>
+          <t>thompson.adelia</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>shelby.s18</t>
+          <t>user7937392720173</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>avalonhalferty</t>
+          <t>mhazlewood</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>_lolascrafts</t>
+          <t>neelydunaway</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jackradziwicz</t>
+          <t>laurenkarnig</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>zoe_h_thompson</t>
+          <t>carson_ruoff_</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>oluwakayode696_</t>
+          <t>zoe_h_thompson</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>caknedler</t>
+          <t>jonah.hilton6</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>karianne.sanders</t>
+          <t>chelsea.nicole35</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>abdoulayediallo614</t>
+          <t>debbie_isaac_jones</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>kaylee_carson06</t>
+          <t>glc_21</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jaelen.porter</t>
+          <t>bridget.colatruglio</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ben.pfeil.17</t>
+          <t>kyndall_litchfield</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>maya_yasmine04</t>
+          <t>kimchadkaercher</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>peytonsking</t>
+          <t>grace_e_norton</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>macyy.mueller</t>
+          <t>wisecarla</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>meagan_grace.05</t>
+          <t>braydenneher</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bobcatbball</t>
+          <t>kendal.blev</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>paul_david_slavin</t>
+          <t>laci.estes</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>chloedavis143</t>
+          <t>3lijah0550</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>thebriansiebert</t>
+          <t>brittleeraegann</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ryan._.diaz_</t>
+          <t>kate.fernsby</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>jan_mcdonald82</t>
+          <t>graces.galleryy</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ella_s6a</t>
+          <t>kristina_w75</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>trellamoss</t>
+          <t>kyleighblanton</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>jaden12.5</t>
+          <t>parkerfarace</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>caralineawilliams</t>
+          <t>tinslee_allan05</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>kambryant3</t>
+          <t>andrew_beyer19</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>gpark13_</t>
+          <t>jud_kirby</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>papermarkup</t>
+          <t>g2thompson</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gavery336_</t>
+          <t>shelby.s18</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>_shelby.radford_</t>
+          <t>e.rinthomps</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>trystan.nicolee</t>
+          <t>hopelane.rhoads</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>madiipeters</t>
+          <t>reagan.42</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>regan_masterson</t>
+          <t>trey.p60</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>pistoy6</t>
+          <t>jonis2009</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>maxbenge0</t>
+          <t>betsybalthrop</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>libbie_diane</t>
+          <t>tamiushkamarie</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>fieldlauryn</t>
+          <t>maddy.c.king</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1602,253 +1602,253 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jadedavvis</t>
+          <t>canyon_curtis</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>autumn.mayfield_</t>
+          <t>segerrune</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>tirzahguevaraa</t>
+          <t>ni_cola9308</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cheryl.silva</t>
+          <t>melbak2023</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>nevaeh.loveras</t>
+          <t>cheryl.silva</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>mbokesch</t>
+          <t>kelz_620</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>alex_evans_05</t>
+          <t>trystan.nicolee</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>lilycoffman24</t>
+          <t>sophiefrazier_</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>samantha__revels</t>
+          <t>luke.haygood</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>taylor_pennington02</t>
+          <t>smyers678</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>kyndall_litchfield</t>
+          <t>lauren.e.karr</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>caralineross05</t>
+          <t>jaycemadison_</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>serenity.schnider</t>
+          <t>audreyfremder</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>8_eduard_4</t>
+          <t>vvivicapowell</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>yardboy75</t>
+          <t>stephanieking9613</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>katedeatherage_</t>
+          <t>jack.munger35</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>skyy.saudade</t>
+          <t>addy.smith_12</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jessicaviana555</t>
+          <t>paul_david_slavin</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>dylan_flechs</t>
+          <t>_kate_mcclure_</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>sophiefrazier_</t>
+          <t>augustuslxnn</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>joshmckenna370</t>
+          <t>rachel.isabel</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>babz862</t>
+          <t>lavendercoin</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>crazycatlady1515</t>
+          <t>its_quentinw</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sophee_nichols_</t>
+          <t>sadie_lou0430</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>maddy.c.king</t>
+          <t>porterjoy</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>maddiesigman_</t>
+          <t>addie.mae.thomas</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>unusual_brushes</t>
+          <t>layken_f</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>abiamin_nn</t>
+          <t>mdharrod71</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>calamitys04</t>
+          <t>gheimbecker</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>simps00</t>
+          <t>lauren.lewiss</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>tinslee_allan05</t>
+          <t>sydney.parisotto</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>abbieneble</t>
+          <t>katedeatherage_</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>trinitywhitee</t>
+          <t>copleyml</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>lydia.hock</t>
+          <t>lyle170023</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>anmnascar</t>
+          <t>charlize.mathis</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lauren.brooks.goss</t>
+          <t>j.g_allenbach</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>pparkerhayes</t>
+          <t>kadlvr</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>rachelsteeleee</t>
+          <t>fieldlauryn</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>nhischu</t>
+          <t>_graysonbaker</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,960 +1998,10 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>jonah.hilton6</t>
+          <t>randi_collins_estes</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>vvivicapowell</t>
-        </is>
-      </c>
-      <c r="B158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>toddvaccarello</t>
-        </is>
-      </c>
-      <c r="B159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>meek__6579</t>
-        </is>
-      </c>
-      <c r="B160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>mads_mowery</t>
-        </is>
-      </c>
-      <c r="B161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>taryn_moorman</t>
-        </is>
-      </c>
-      <c r="B162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>ikamtastic_</t>
-        </is>
-      </c>
-      <c r="B163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>justpeachy2725</t>
-        </is>
-      </c>
-      <c r="B164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>melall74</t>
-        </is>
-      </c>
-      <c r="B165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>brirundle</t>
-        </is>
-      </c>
-      <c r="B166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>_karleewebb</t>
-        </is>
-      </c>
-      <c r="B167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>delani_davenport</t>
-        </is>
-      </c>
-      <c r="B168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>mckenzi_kenzii</t>
-        </is>
-      </c>
-      <c r="B169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>reagan_alexander_</t>
-        </is>
-      </c>
-      <c r="B170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>dsal23_</t>
-        </is>
-      </c>
-      <c r="B171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>davidkristi_bacon</t>
-        </is>
-      </c>
-      <c r="B172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>theaveryatch</t>
-        </is>
-      </c>
-      <c r="B173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>user7937392720173</t>
-        </is>
-      </c>
-      <c r="B174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>emilyfweiss</t>
-        </is>
-      </c>
-      <c r="B175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>ellea.smith89</t>
-        </is>
-      </c>
-      <c r="B176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>jonis2009</t>
-        </is>
-      </c>
-      <c r="B177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>stylingene</t>
-        </is>
-      </c>
-      <c r="B178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>therealgsu</t>
-        </is>
-      </c>
-      <c r="B179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>sydney.parisotto</t>
-        </is>
-      </c>
-      <c r="B180" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>keeping_up_with_keziah</t>
-        </is>
-      </c>
-      <c r="B181" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>maverickl14</t>
-        </is>
-      </c>
-      <c r="B182" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>avagclarkk</t>
-        </is>
-      </c>
-      <c r="B183" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>halle.malpass</t>
-        </is>
-      </c>
-      <c r="B184" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>hattie.bond</t>
-        </is>
-      </c>
-      <c r="B185" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>car.sonsmith22</t>
-        </is>
-      </c>
-      <c r="B186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>kinsleymdalton</t>
-        </is>
-      </c>
-      <c r="B187" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>alexmyers0316_</t>
-        </is>
-      </c>
-      <c r="B188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>audreyfremder</t>
-        </is>
-      </c>
-      <c r="B189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>catherinekamp3</t>
-        </is>
-      </c>
-      <c r="B190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>ricardo.mulino</t>
-        </is>
-      </c>
-      <c r="B191" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>carol.bluethman</t>
-        </is>
-      </c>
-      <c r="B192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>sara.hershyyb</t>
-        </is>
-      </c>
-      <c r="B193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>caroline.krebs_</t>
-        </is>
-      </c>
-      <c r="B194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>claytonjroach</t>
-        </is>
-      </c>
-      <c r="B195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>brigid_leto7</t>
-        </is>
-      </c>
-      <c r="B196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>kyleighblanton</t>
-        </is>
-      </c>
-      <c r="B197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>savanah.crittenden</t>
-        </is>
-      </c>
-      <c r="B198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>ni_cola9308</t>
-        </is>
-      </c>
-      <c r="B199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>briennefarrar</t>
-        </is>
-      </c>
-      <c r="B200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>kellyjakirea</t>
-        </is>
-      </c>
-      <c r="B201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>brehartyyy</t>
-        </is>
-      </c>
-      <c r="B202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>realwillbogie</t>
-        </is>
-      </c>
-      <c r="B203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>thegusavendano</t>
-        </is>
-      </c>
-      <c r="B204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>brycesmith112</t>
-        </is>
-      </c>
-      <c r="B205" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>justcamrie</t>
-        </is>
-      </c>
-      <c r="B206" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>paytynferrell</t>
-        </is>
-      </c>
-      <c r="B207" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>food_with_me20</t>
-        </is>
-      </c>
-      <c r="B208" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>currie.sydney</t>
-        </is>
-      </c>
-      <c r="B209" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>nate.jines8</t>
-        </is>
-      </c>
-      <c r="B210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>audrey_caroline__</t>
-        </is>
-      </c>
-      <c r="B211" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>jimmy.tedra</t>
-        </is>
-      </c>
-      <c r="B212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>aavamattinglyy</t>
-        </is>
-      </c>
-      <c r="B213" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>3lijah0550</t>
-        </is>
-      </c>
-      <c r="B214" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>amandacasica</t>
-        </is>
-      </c>
-      <c r="B215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>the_huntermartin</t>
-        </is>
-      </c>
-      <c r="B216" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>kimchadkaercher</t>
-        </is>
-      </c>
-      <c r="B217" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>mdharrod71</t>
-        </is>
-      </c>
-      <c r="B218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>neileeguinn</t>
-        </is>
-      </c>
-      <c r="B219" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>payssegroen</t>
-        </is>
-      </c>
-      <c r="B220" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>chelseaceeam</t>
-        </is>
-      </c>
-      <c r="B221" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>syd.toph</t>
-        </is>
-      </c>
-      <c r="B222" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>copleyml</t>
-        </is>
-      </c>
-      <c r="B223" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>brady3538</t>
-        </is>
-      </c>
-      <c r="B224" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>floetic.libra</t>
-        </is>
-      </c>
-      <c r="B225" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>pablo_vazquez345</t>
-        </is>
-      </c>
-      <c r="B226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>tawnyroberds</t>
-        </is>
-      </c>
-      <c r="B227" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>lholden1264</t>
-        </is>
-      </c>
-      <c r="B228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>i.lovejonathan</t>
-        </is>
-      </c>
-      <c r="B229" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>alyssamcclard</t>
-        </is>
-      </c>
-      <c r="B230" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>tanner.trouthb</t>
-        </is>
-      </c>
-      <c r="B231" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>alyssa.lew_</t>
-        </is>
-      </c>
-      <c r="B232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>andres.martineze</t>
-        </is>
-      </c>
-      <c r="B233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>lukeedelman24</t>
-        </is>
-      </c>
-      <c r="B234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>audreykhughes</t>
-        </is>
-      </c>
-      <c r="B235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>lauren_earp24</t>
-        </is>
-      </c>
-      <c r="B236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>haven.pyle</t>
-        </is>
-      </c>
-      <c r="B237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>jessicajacob__</t>
-        </is>
-      </c>
-      <c r="B238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>segerrune</t>
-        </is>
-      </c>
-      <c r="B239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>its_the_melody_</t>
-        </is>
-      </c>
-      <c r="B240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>kymberlee.jord</t>
-        </is>
-      </c>
-      <c r="B241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>laursaunders</t>
-        </is>
-      </c>
-      <c r="B242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>isabellekoch1215</t>
-        </is>
-      </c>
-      <c r="B243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>caseelogan</t>
-        </is>
-      </c>
-      <c r="B244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>ginapagecomermaxwell</t>
-        </is>
-      </c>
-      <c r="B245" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>kgar.1</t>
-        </is>
-      </c>
-      <c r="B246" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>lafichera24</t>
-        </is>
-      </c>
-      <c r="B247" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>hannah.grady76</t>
-        </is>
-      </c>
-      <c r="B248" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>augustuslxnn</t>
-        </is>
-      </c>
-      <c r="B249" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>addison_dawes</t>
-        </is>
-      </c>
-      <c r="B250" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>lavendercoin</t>
-        </is>
-      </c>
-      <c r="B251" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>tiaunna.travis</t>
-        </is>
-      </c>
-      <c r="B252" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/cowboys.roomme.xlsx
+++ b/Marketing/cowboys.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cora_cagle</t>
+          <t>phusen46</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>brigid_leto7</t>
+          <t>ava.v.schmitz</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>madison.travis24</t>
+          <t>oakley.southard</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>autumn.mayfield_</t>
+          <t>kena.johanknecht</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gpark13_</t>
+          <t>laurencothran06</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kenziemurphy0</t>
+          <t>tucker_mulick03</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mcklammers24</t>
+          <t>ryder.walter_2</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>andr01d05</t>
+          <t>iamjennaallen</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>alex_evans_05</t>
+          <t>maziebrookebennett_</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>briennefarrar</t>
+          <t>cole_carper42</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sonyalarson22</t>
+          <t>bella.mcmullen</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lafichera24</t>
+          <t>christhompson1973</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hannah_marino3</t>
+          <t>marley.kerr</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>audreykhughes</t>
+          <t>brittneysmith_10</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sophee_nichols_</t>
+          <t>logansimpkins_</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>brirundle</t>
+          <t>leser02</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>audreyycaban</t>
+          <t>jack.carp_22</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>averyypate</t>
+          <t>madeline_joy_mckee</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>avery_escajeda</t>
+          <t>itsblake.68</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>c_marie_37</t>
+          <t>annabelschuster_</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>justpeachy2725</t>
+          <t>juliebowen.8</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kbrown.denton</t>
+          <t>meagan.loftin</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jan_mcdonald82</t>
+          <t>avary_alberg</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>abbiee_nicolee07</t>
+          <t>reece__branch</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sara.hershyyb</t>
+          <t>maddiesigman_</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ben.pfeil.17</t>
+          <t>mirandabeagles</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>leahdezek</t>
+          <t>ryancoodyy</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nevaeh.loveras</t>
+          <t>ryley5172</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tyler__chrisman</t>
+          <t>addieclark__</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>stinson_burns</t>
+          <t>aavamattinglyy</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ellerygraff</t>
+          <t>kyndalkirby</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>chance__justice</t>
+          <t>_kamgrace</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>natalyabyrd</t>
+          <t>roseharvey06</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>teddie_hooker</t>
+          <t>_katiebacon</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>caralineross05</t>
+          <t>ianfranze22</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>madiipeters</t>
+          <t>madison.jolliff</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mjd68</t>
+          <t>brady.alsup</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>tawnyroberds</t>
+          <t>grace.k.howard</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kademc5</t>
+          <t>maysen.jerae</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>abby.dequasie</t>
+          <t>kourtney.hopcus</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>christian.tiera</t>
+          <t>emmarothwell5</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>regan_masterson</t>
+          <t>alex___lawson</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>jack_gimm</t>
+          <t>brockmanfarmlife</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2_elc_7</t>
+          <t>courtneynbauer</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sofiadallarosaaa</t>
+          <t>maggie.palmer7</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>joeltramp23</t>
+          <t>addicoxx</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>_madison.land_</t>
+          <t>addison.sarratt</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>abiamin_nn</t>
+          <t>_evacondon</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>emilyfweiss</t>
+          <t>emmacw2005</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>zachary_crum</t>
+          <t>libby.payne</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>pistoy4</t>
+          <t>farmerr_43</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vivian.e.t</t>
+          <t>maggie.baughman</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xmdimran</t>
+          <t>janellemayee</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tracesfilmfest</t>
+          <t>olivia_nay_</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>charittyyy</t>
+          <t>allie.sisco</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>p_akers421</t>
+          <t>evalloydd</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tirzahguevaraa</t>
+          <t>alexxsagarr</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kgar.1</t>
+          <t>maddie.oyler</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>molliekatewebb</t>
+          <t>anika__novak</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>soph_tijerina</t>
+          <t>kknrg</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,707 +1048,707 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>carol.bluethman</t>
+          <t>evan.mcintire</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tuckers_in_texas</t>
+          <t>jocelyn.hughesss</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bella.donofrio</t>
+          <t>lauren_darby16</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cmollie</t>
+          <t>marleigh.cook</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>th0maspk</t>
+          <t>allie.schreck</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>jastinyhale</t>
+          <t>_e11asmith</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bayles_76_</t>
+          <t>sky.c_14</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>htner04</t>
+          <t>dylan_eslick</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jaden12.5</t>
+          <t>brixfarris</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bobcatbball</t>
+          <t>madelinee.mooree</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cooper__bacon</t>
+          <t>cassidy.rink</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>apexonperkins</t>
+          <t>ryleemartineauu</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>connor_w_phillips</t>
+          <t>presley.senn</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sadler_satterwhite</t>
+          <t>emma.hines10</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>floetic.libra</t>
+          <t>addie_lowe11</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mckenzi_kenzii</t>
+          <t>bridgetteyearian</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>thompson.adelia</t>
+          <t>siyajoshi29</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>user7937392720173</t>
+          <t>iitsdestinie</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mhazlewood</t>
+          <t>_saraflynn</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>neelydunaway</t>
+          <t>macyy.mueller</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>laurenkarnig</t>
+          <t>kaleb_corum24</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>carson_ruoff_</t>
+          <t>linnea_mnt</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>zoe_h_thompson</t>
+          <t>katyaskinner</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jonah.hilton6</t>
+          <t>peytongawlik</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>chelsea.nicole35</t>
+          <t>marielkemna</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>debbie_isaac_jones</t>
+          <t>kennedygrifff</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>glc_21</t>
+          <t>sarah.compton_</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bridget.colatruglio</t>
+          <t>aubrey.ultsch</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kyndall_litchfield</t>
+          <t>nat_vhd3</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>kimchadkaercher</t>
+          <t>addythomas_</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>grace_e_norton</t>
+          <t>london.witte</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>wisecarla</t>
+          <t>dillonpowers225</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>braydenneher</t>
+          <t>adele.mariee</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kendal.blev</t>
+          <t>naomi.snod</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>laci.estes</t>
+          <t>katelyn.m.moore</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3lijah0550</t>
+          <t>owen.brown00</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>brittleeraegann</t>
+          <t>l.i.b.b.y.c.l.a.i.r.e</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>kate.fernsby</t>
+          <t>rylan.j.harris</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>graces.galleryy</t>
+          <t>tayloraberson</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>kristina_w75</t>
+          <t>emily.bellettini</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>kyleighblanton</t>
+          <t>cjaneolson</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>parkerfarace</t>
+          <t>olliegreyh</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>tinslee_allan05</t>
+          <t>albis.caballero</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>andrew_beyer19</t>
+          <t>hannah.deichert</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>jud_kirby</t>
+          <t>makynnaam</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>g2thompson</t>
+          <t>camdyndwyer</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>shelby.s18</t>
+          <t>avery.beth</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>e.rinthomps</t>
+          <t>riley.hickson</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>hopelane.rhoads</t>
+          <t>addi_grace50</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>reagan.42</t>
+          <t>emerythienhardt</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>trey.p60</t>
+          <t>shelbymccaffery</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>jonis2009</t>
+          <t>gabriella.mullenax</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>betsybalthrop</t>
+          <t>canonpohlmeier</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>tamiushkamarie</t>
+          <t>devinelise_</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>maddy.c.king</t>
+          <t>lydia__carroll</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>triciastevenson0508</t>
+          <t>kati.e8617</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>canyon_curtis</t>
+          <t>jaycelomax</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>segerrune</t>
+          <t>hornfrogheather</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ni_cola9308</t>
+          <t>robackthree</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>melbak2023</t>
+          <t>allisonnbryant</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>cheryl.silva</t>
+          <t>jlomonaco63</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>kelz_620</t>
+          <t>brylie.katherine13</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>trystan.nicolee</t>
+          <t>jojo.millerr</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sophiefrazier_</t>
+          <t>its_kelsey.w</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>luke.haygood</t>
+          <t>sarahhhturnerrr</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>smyers678</t>
+          <t>laynalees</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lauren.e.karr</t>
+          <t>addisonlhodges</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jaycemadison_</t>
+          <t>hannahhporter_</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>audreyfremder</t>
+          <t>_kenzie.stephenson_</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>vvivicapowell</t>
+          <t>finley.miller05</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>stephanieking9613</t>
+          <t>mauricia.katarina</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>jack.munger35</t>
+          <t>_grantbowler</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>addy.smith_12</t>
+          <t>cassidyquevedo</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>paul_david_slavin</t>
+          <t>kentrel3606</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>_kate_mcclure_</t>
+          <t>tristyn__cooper</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>augustuslxnn</t>
+          <t>mackenziek.44</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>rachel.isabel</t>
+          <t>anniegnski</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>lavendercoin</t>
+          <t>hadley.edaniel</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>its_quentinw</t>
+          <t>rylee_russell__</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sadie_lou0430</t>
+          <t>maryannkay2006</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>porterjoy</t>
+          <t>marin.elizabethh</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>addie.mae.thomas</t>
+          <t>_avagoldstein__</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>layken_f</t>
+          <t>micahbrown08.31</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>mdharrod71</t>
+          <t>lifewjessie_</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>gheimbecker</t>
+          <t>sophiefrazier_</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lauren.lewiss</t>
+          <t>gabby_madrid11</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>sydney.parisotto</t>
+          <t>alexmyers0316_</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>katedeatherage_</t>
+          <t>md_skogs</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>copleyml</t>
+          <t>_christenstewart</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>lyle170023</t>
+          <t>phobtateshad</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>charlize.mathis</t>
+          <t>coateskaden</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>j.g_allenbach</t>
+          <t>ymnrdhmzh</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>kadlvr</t>
+          <t>kearaspammmz</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>fieldlauryn</t>
+          <t>lillyhuds0n</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>_graysonbaker</t>
+          <t>reagancwalker_</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,10 +1998,3790 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>randi_collins_estes</t>
+          <t>bryar_phil06</t>
         </is>
       </c>
       <c r="B157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>addisonw_24</t>
+        </is>
+      </c>
+      <c r="B158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>olivia.cafaro</t>
+        </is>
+      </c>
+      <c r="B159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>tionnaowenss</t>
+        </is>
+      </c>
+      <c r="B160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>whitney_green765</t>
+        </is>
+      </c>
+      <c r="B161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ellie.neuman7</t>
+        </is>
+      </c>
+      <c r="B162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>camzachary3</t>
+        </is>
+      </c>
+      <c r="B163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>averyautry06</t>
+        </is>
+      </c>
+      <c r="B164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>augustuslxnn</t>
+        </is>
+      </c>
+      <c r="B165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>_austin_zink</t>
+        </is>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>amandacasica</t>
+        </is>
+      </c>
+      <c r="B167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>hattie.bond</t>
+        </is>
+      </c>
+      <c r="B168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>kenzie_violet06</t>
+        </is>
+      </c>
+      <c r="B169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>kaylee_knox13</t>
+        </is>
+      </c>
+      <c r="B170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>hannahharris.b</t>
+        </is>
+      </c>
+      <c r="B171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>_kaylee.lowry</t>
+        </is>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>lacey.hancock</t>
+        </is>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>zoey.metersky</t>
+        </is>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>elianahenrichss</t>
+        </is>
+      </c>
+      <c r="B175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>hannahhdearmon</t>
+        </is>
+      </c>
+      <c r="B176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>pamk_art</t>
+        </is>
+      </c>
+      <c r="B177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>bbtaylor8</t>
+        </is>
+      </c>
+      <c r="B178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>brayden_weaver14</t>
+        </is>
+      </c>
+      <c r="B179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>makennaadamson</t>
+        </is>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>_marygracemiller</t>
+        </is>
+      </c>
+      <c r="B181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>alyssa.mmoore</t>
+        </is>
+      </c>
+      <c r="B182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>vermillion1012</t>
+        </is>
+      </c>
+      <c r="B183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>kendall_b3695</t>
+        </is>
+      </c>
+      <c r="B184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>jaelen.porter</t>
+        </is>
+      </c>
+      <c r="B185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>peyton_103</t>
+        </is>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>fimidara_1010</t>
+        </is>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>angienguyennn</t>
+        </is>
+      </c>
+      <c r="B188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>dallaspestow</t>
+        </is>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>lily.staton_23</t>
+        </is>
+      </c>
+      <c r="B190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>engels.mason26</t>
+        </is>
+      </c>
+      <c r="B191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>isabella.napoliello</t>
+        </is>
+      </c>
+      <c r="B192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>datguyfromtx</t>
+        </is>
+      </c>
+      <c r="B193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>gentry.mead</t>
+        </is>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>taylee.chasko</t>
+        </is>
+      </c>
+      <c r="B195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>sahil.chowdury</t>
+        </is>
+      </c>
+      <c r="B196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>mycah.mcclendon</t>
+        </is>
+      </c>
+      <c r="B197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>drewpenney29</t>
+        </is>
+      </c>
+      <c r="B198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>makenafady</t>
+        </is>
+      </c>
+      <c r="B199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>matthew.megwa</t>
+        </is>
+      </c>
+      <c r="B200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ava.m.widman</t>
+        </is>
+      </c>
+      <c r="B201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>eliasmorris_</t>
+        </is>
+      </c>
+      <c r="B202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>grayson.dowdy</t>
+        </is>
+      </c>
+      <c r="B203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>audrey.cooxx</t>
+        </is>
+      </c>
+      <c r="B204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>kate_duffyyy</t>
+        </is>
+      </c>
+      <c r="B205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>shelby.nissen</t>
+        </is>
+      </c>
+      <c r="B206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>alyssa.lew_</t>
+        </is>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>bella_faughttt</t>
+        </is>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>kati.e2735</t>
+        </is>
+      </c>
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>jollete.moctezuma</t>
+        </is>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>lexie.mcwilliams</t>
+        </is>
+      </c>
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ashclasby</t>
+        </is>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>abbywelch_10</t>
+        </is>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>zach_4889</t>
+        </is>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>emmawilliamson201</t>
+        </is>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>nicoleee.martinnn</t>
+        </is>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>noahwech_06</t>
+        </is>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>mcintosh.avery</t>
+        </is>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>88_alwys</t>
+        </is>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>macym11</t>
+        </is>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>sawyermoss_</t>
+        </is>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>lila.kgraham7</t>
+        </is>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>lyric.wallin</t>
+        </is>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>drew_ann__</t>
+        </is>
+      </c>
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>angelmeza_____</t>
+        </is>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>gandrew13</t>
+        </is>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>_isabelkleidosty</t>
+        </is>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>pagebraden_</t>
+        </is>
+      </c>
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>theaveryatch</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>reese.clements</t>
+        </is>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>cole.plumbley</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>braelynwiest</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>lukewest224</t>
+        </is>
+      </c>
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>sydneylang_</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>hoganerica</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>maggie.jenz</t>
+        </is>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ryanpplz</t>
+        </is>
+      </c>
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>kate_burger11</t>
+        </is>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>lilyibruce</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>emmaashcraft_</t>
+        </is>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>boninemilee</t>
+        </is>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>cxden_law</t>
+        </is>
+      </c>
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>_becks_3</t>
+        </is>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>kendall.watsonn</t>
+        </is>
+      </c>
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>emilymertess</t>
+        </is>
+      </c>
+      <c r="B245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>bellamcclureee</t>
+        </is>
+      </c>
+      <c r="B246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>oneal.brooklyn</t>
+        </is>
+      </c>
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>_allisonmichelle_</t>
+        </is>
+      </c>
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>jadedavvis</t>
+        </is>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>3liasdaniels</t>
+        </is>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>reagancarey28</t>
+        </is>
+      </c>
+      <c r="B251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>userjsb374jjeirb284</t>
+        </is>
+      </c>
+      <c r="B252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>paytonsuchy</t>
+        </is>
+      </c>
+      <c r="B253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>brooklyn.borin</t>
+        </is>
+      </c>
+      <c r="B254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>soonermama74</t>
+        </is>
+      </c>
+      <c r="B255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>bella.rivera.18</t>
+        </is>
+      </c>
+      <c r="B256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ashleighwalkerrr</t>
+        </is>
+      </c>
+      <c r="B257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ryli.murray</t>
+        </is>
+      </c>
+      <c r="B258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>s0fia_hale</t>
+        </is>
+      </c>
+      <c r="B259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>delani_davenport</t>
+        </is>
+      </c>
+      <c r="B260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>kynlee._.reese</t>
+        </is>
+      </c>
+      <c r="B261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>aditya.poduval</t>
+        </is>
+      </c>
+      <c r="B262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>leslie.gonzalezzzzz</t>
+        </is>
+      </c>
+      <c r="B263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>kristinavenablee</t>
+        </is>
+      </c>
+      <c r="B264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>leigha_chris18</t>
+        </is>
+      </c>
+      <c r="B265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>brookehall06</t>
+        </is>
+      </c>
+      <c r="B266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>drewgilleland_13</t>
+        </is>
+      </c>
+      <c r="B267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>cindy_madison02</t>
+        </is>
+      </c>
+      <c r="B268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>sirfloat99</t>
+        </is>
+      </c>
+      <c r="B269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>sophia_capitel</t>
+        </is>
+      </c>
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>gabilupinski</t>
+        </is>
+      </c>
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>oliviahall.14</t>
+        </is>
+      </c>
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>katedeatherage_</t>
+        </is>
+      </c>
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>cole_sandy88</t>
+        </is>
+      </c>
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>landriegregory</t>
+        </is>
+      </c>
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>dorm_decor_co</t>
+        </is>
+      </c>
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>caleb_cervantez</t>
+        </is>
+      </c>
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>kearawilliams06</t>
+        </is>
+      </c>
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>chelsea.nicole35</t>
+        </is>
+      </c>
+      <c r="B279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>laurel4008_</t>
+        </is>
+      </c>
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>caralineawilliams</t>
+        </is>
+      </c>
+      <c r="B281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>kamsmithx</t>
+        </is>
+      </c>
+      <c r="B282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>peytonsking</t>
+        </is>
+      </c>
+      <c r="B283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>madisonnrauu</t>
+        </is>
+      </c>
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>sam_high22</t>
+        </is>
+      </c>
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>umberqsu4843312</t>
+        </is>
+      </c>
+      <c r="B286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>blakebollenbach</t>
+        </is>
+      </c>
+      <c r="B287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>juju.mayers</t>
+        </is>
+      </c>
+      <c r="B288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>hanna.20.20</t>
+        </is>
+      </c>
+      <c r="B289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>sadiekey_</t>
+        </is>
+      </c>
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>carolineflurry</t>
+        </is>
+      </c>
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>jackson_parker8</t>
+        </is>
+      </c>
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>charlotte.walley</t>
+        </is>
+      </c>
+      <c r="B293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>kamryn_crocker</t>
+        </is>
+      </c>
+      <c r="B294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>katherinevhogan</t>
+        </is>
+      </c>
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>kameron_kristine</t>
+        </is>
+      </c>
+      <c r="B296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>libertydavisss</t>
+        </is>
+      </c>
+      <c r="B297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>laneyetters</t>
+        </is>
+      </c>
+      <c r="B298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>_the._pearl_niccur</t>
+        </is>
+      </c>
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>kinsleymdalton</t>
+        </is>
+      </c>
+      <c r="B300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>charlie.allis_</t>
+        </is>
+      </c>
+      <c r="B301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>madysontylan</t>
+        </is>
+      </c>
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>reece.rothwell</t>
+        </is>
+      </c>
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>megan_louise_06</t>
+        </is>
+      </c>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>alvarezvalerie_</t>
+        </is>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>jacobjones_spiderman10</t>
+        </is>
+      </c>
+      <c r="B306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>kate.bell1</t>
+        </is>
+      </c>
+      <c r="B307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>aubriesmith_05</t>
+        </is>
+      </c>
+      <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>darlaeschlittler</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>alliegmcclure</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>osubauers</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>kennedy.coyle</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>sydney.rudeen</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>aubreytylavsky</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>haleyscroggins</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>tawnyroberds</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>korbynkufahl</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>kate.pritchett3</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>kschutt_27</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>paytonmhill</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>jalillard</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>rachel.nicole6</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>jc_valdezzz</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>haydenrholt</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>lilly_ross05</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>stella_ray.r</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>berger.kylie</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>bradley.wilson19</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>ellabowman06</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>amospartyof4</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>maddoxm_1</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>roryhake</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>jwoodyv</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>everettwalley</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>regan_lea</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>julietmtatom</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>allieruth06</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>cperk__30</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>kate.bonesteel</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>shayleaseever</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>carolinee.brownn</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>hannahfrazier57</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ashlyn_grace_lopez</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>jessie.cochran</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>elliehorneber</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>jjjosegmz</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>macymcmanus_</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>maryn.mitchell</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>hannahmartin7389</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>p_slate9</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>abby_81_</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>scottcandace</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>grant.clarkk</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>mackenzi.wright</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>caris.attebery</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>miaanikwe</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>ardenlb6</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>gabbiwilkinson1</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>riley.mass7</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>paytonritchey</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>cam.aanderson</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>__gracecatherine</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>cadence.holley_</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>osucowboycountry</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>jaycee.leighann</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>twthree05</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>kendalljburch_</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>karjack.rice</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>kate.rodgerss</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>megan_mchannel</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>mollyjlada</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>c.ole_anderson</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>kelloncollington</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>presley.sanders</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>_emmacresta_</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>wesley.fox_</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>kaleighfrazer_</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>jacksondollarhide</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>jianna_patton</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>loganistevenson</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>kendallbaker.24</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>_maddiekemp_</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>jillmill918</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>whitakerrwiliams</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>evelyn_clark_</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>lilyalvordd</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>trellamoss</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>aubreyschoo</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ryleighfranciss</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>emileigh.grace</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ashley.hilbert</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>peyton.riley.s</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>sheridan.wilsonn</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>chasey_mae</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>kylie.grandell</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>paxton.lockett</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>gabriella_romano1</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>madi.laminack</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>parkstergf10</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>lamekayork</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>kelseydaniel__</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>lilianilopezz</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>lauren.e.karr</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>peyton.alexis44</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>lizzieallyncase</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>cassiethomas7</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>kamrynptow</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>kendalletreat</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>fallonhays_</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>margaret_camak</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>paytonjstone</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>jlub21</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>reilly_mcclure4</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>racheldionisio</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>aubreyyroberts_</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>sami_schweighardt</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>shyliebriee</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>skylarjadeee_</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>liv.mastenbrook</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>c_g_presti11</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>laursaunders</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>sarah.crec</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>addie.mae.thomas</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>shelbykelsey_15</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>colton.cook23</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>andeekutter</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>kateesantoro_</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>maddy.harttt</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>katieepeguess</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>evan_thesman007</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>jenmdillahunty</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>jadyn.pitre</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>chloegwrightt</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>remington2alex</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>katehensonn</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>kaden._glenn</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>parker_ritchey10</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>paytie.preggs</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>carissarenee24</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>mia.ga11eg0s</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>gage_nwfb18</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>djbj456</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>masonbp34</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>teyafalino</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>addiewillims</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>emmabwilson_</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>mjd68</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>kye_chesmer</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>kayla_allen21</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>olivia__scott03</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>sam_stillwell47</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>reagan.akridge</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>emma.xx.love</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>shaveena06</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>emmakael2006</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>c.cox28</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>cheyenne.brockman</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>eli.pete7</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ava.smyth05</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>reese_slate</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>kylaknutson_</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>evaa_atkins</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>dmueller3</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>_bella.salinas_</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>logann_alivia16</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>_lilliestansberry</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>masonteuscher_</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>mcgowanh</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>payssegroen</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>carlsjr022519</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>go_go_garrett</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>lily.sturges</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>neelydunaway</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>c.sundberg.601</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>nataliedennehey</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>alanizespp</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>drew.i.v</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>dancegirl0811</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>brooklyn_2511</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>_lilyjanis</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>rachelblmfld</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>gpark13_</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>jolie.dreher</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>emmaduckworth</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>abdawgfresh</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>sydneyfoxws.n5</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>lauren_mrvos</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>brooklyn.kopp</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>itsmeganelam</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>paytynferrell</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>jaretrowlan9</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>violetelleee</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>uvonda.welborn</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>jt_2023_</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>_hadleydixon</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>ela._.bliss</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>kylee___villines</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>ellgraceholt</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>kamh06</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>kaylee.1665</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>emilyblandd</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>kaydenlynn06</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>mykaelalumryy</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>sammysetiadarma</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>katyy.villegas</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>jaycemadison_</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>reecekatherine17</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>teagenjo</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>9445_sara</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>cameron.davidddd</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>kkatethomas_</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>norah.elisabeth</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>emmaaaaa.002</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>_ansleydevoe</t>
+        </is>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>__gabriellacastillo</t>
+        </is>
+      </c>
+      <c r="B515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>caroline.krebs_</t>
+        </is>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>juliawittinger11</t>
+        </is>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>bellaaphamm</t>
+        </is>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>madisynboase</t>
+        </is>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>jacob.webb17</t>
+        </is>
+      </c>
+      <c r="B520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>emily.faux</t>
+        </is>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>mimithompson900</t>
+        </is>
+      </c>
+      <c r="B522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>addisonmarie56</t>
+        </is>
+      </c>
+      <c r="B523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>janiahbaker09</t>
+        </is>
+      </c>
+      <c r="B524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>jordynreedd</t>
+        </is>
+      </c>
+      <c r="B525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>kathrynbowman19</t>
+        </is>
+      </c>
+      <c r="B526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>sidneyjernigann</t>
+        </is>
+      </c>
+      <c r="B527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>aubrey.burchfield</t>
+        </is>
+      </c>
+      <c r="B528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>olivia.meanss</t>
+        </is>
+      </c>
+      <c r="B529" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>ellaashortino</t>
+        </is>
+      </c>
+      <c r="B530" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>brooklynraet</t>
+        </is>
+      </c>
+      <c r="B531" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>mckinzi.lewis</t>
+        </is>
+      </c>
+      <c r="B532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>gracechapman701</t>
+        </is>
+      </c>
+      <c r="B533" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>kloegleisner_</t>
+        </is>
+      </c>
+      <c r="B534" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>sofiadallarosaaa</t>
+        </is>
+      </c>
+      <c r="B535" t="b">
         <v>0</v>
       </c>
     </row>
